--- a/biology/Zoologie/Freyella/Freyella.xlsx
+++ b/biology/Zoologie/Freyella/Freyella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Freyella est un genre d'étoiles de mer abyssales de la famille des Freyellidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La quasi-totalité des espèces de ce genre sont inféodées aux abysses, et on en trouve jusqu'à 6 000 m de profondeur (6 860 m pour Freyella kurilokamchatica)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La quasi-totalité des espèces de ce genre sont inféodées aux abysses, et on en trouve jusqu'à 6 000 m de profondeur (6 860 m pour Freyella kurilokamchatica).
 Ces espèces sont planctonivores, et se nourrissent en filtrant la colonne d'eau au moyen de leurs nombreux bras allongés et couverts de pédicellaires griffus.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (14 octobre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (14 octobre 2014) :
 Freyella americana Sladen, 1889
 Freyella attenuata Sladen, 1889
 Freyella breviispina (H.L. Clark, 1920)
@@ -565,7 +581,7 @@
 Freyella kurilokamchatica Korovchinsky, 1976
 Freyella loricata Korovchinsky &amp; Galkin, 1984
 Freyella macropedicellaria Korovchinsky &amp; Galkin, 1984
-Freyella microplax (Fisher, 1917) (seule espèce reconnus par ITIS[3])
+Freyella microplax (Fisher, 1917) (seule espèce reconnus par ITIS)
 Freyella microspina Verrill, 1894
 Freyella mortenseni Madsen, 1956
 Freyella mutabilia Korovchinsky, 1976
